--- a/EASYCIVIL.bundle/CONTENTS/NET8/EASYCIVILCOMMANDS.xlsx
+++ b/EASYCIVIL.bundle/CONTENTS/NET8/EASYCIVILCOMMANDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOLISP\CIVIL3D.NET\CIVIL3D ONE PROJECT\EASYCIVIL\MENU\EASYCIVILMENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB8C4D4-65F3-4E3C-9E1A-20DD3DFD7D51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B7B30-5A82-45CA-9D51-EA7F5481D793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12645" tabRatio="748" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12645" tabRatio="748" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="8" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Export" sheetId="9" r:id="rId12"/>
     <sheet name="FeatureLine" sheetId="13" r:id="rId13"/>
     <sheet name="Polyline" sheetId="11" r:id="rId14"/>
+    <sheet name="Update" sheetId="16" r:id="rId15"/>
+    <sheet name="Activation" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>SPP</t>
   </si>
@@ -377,6 +379,24 @@
   </si>
   <si>
     <t>[OPCR]..Open Clash Report</t>
+  </si>
+  <si>
+    <t>EASYCIVILABOUTLICENSE</t>
+  </si>
+  <si>
+    <t>EASYCIVILLOADLICENSE</t>
+  </si>
+  <si>
+    <t>[ License Information ]</t>
+  </si>
+  <si>
+    <t>[ Active License ]</t>
+  </si>
+  <si>
+    <t>[ Update EASYCIVIL ]</t>
+  </si>
+  <si>
+    <t>EASYCIVILUPDATE</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1046,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1062,70 @@
       </c>
       <c r="B1" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A103A6-C697-476D-BA99-11E6FAFD8181}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9597F2B2-3FE3-4DE2-AFA9-F3BD0817294C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05290D9-923D-4D36-93C8-988364A60A05}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/EASYCIVIL.bundle/CONTENTS/NET8/EASYCIVILCOMMANDS.xlsx
+++ b/EASYCIVIL.bundle/CONTENTS/NET8/EASYCIVILCOMMANDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOLISP\CIVIL3D.NET\CIVIL3D ONE PROJECT\EASYCIVIL\MENU\EASYCIVILMENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B7B30-5A82-45CA-9D51-EA7F5481D793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0529609F-E1FA-471E-BD26-822AC554BA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12645" tabRatio="748" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12645" tabRatio="748" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>SPP</t>
   </si>
@@ -102,21 +102,12 @@
     <t>ATP</t>
   </si>
   <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LPP</t>
-  </si>
-  <si>
     <t>SBK</t>
   </si>
   <si>
     <t>DBP</t>
   </si>
   <si>
-    <t>DBN</t>
-  </si>
-  <si>
     <t>UDP</t>
   </si>
   <si>
@@ -192,21 +183,12 @@
     <t>[ATP]..Add Parts to Profile</t>
   </si>
   <si>
-    <t>[ADP]..Auto Add Parts to Profile</t>
-  </si>
-  <si>
-    <t>[LPP]..Layout Profile</t>
-  </si>
-  <si>
     <t>[SBK]..Select Parts Back from Profile</t>
   </si>
   <si>
     <t>[DBP]..Distance Between Two Pipes</t>
   </si>
   <si>
-    <t>[DBN]..Distance Between All Pipes</t>
-  </si>
-  <si>
     <t>[UDP]..UP or Down Pipes from RefPipe</t>
   </si>
   <si>
@@ -393,10 +375,10 @@
     <t>[ Active License ]</t>
   </si>
   <si>
-    <t>[ Update EASYCIVIL ]</t>
-  </si>
-  <si>
     <t>EASYCIVILUPDATE</t>
+  </si>
+  <si>
+    <t>[ Check Update EASYCIVIL ]</t>
   </si>
 </sst>
 </file>
@@ -765,68 +747,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -836,10 +818,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF12041C-F8F7-4E3D-90F8-00F08A8BF469}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,12 +836,12 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,12 +857,12 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,49 +870,28 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -958,18 +919,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -994,18 +955,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1030,10 +991,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1058,10 +1019,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1073,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A103A6-C697-476D-BA99-11E6FAFD8181}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,10 +1047,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1114,18 +1075,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1178,36 +1139,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,25 +1220,25 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,15 +1246,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,15 +1262,15 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,12 +1306,12 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1383,15 +1344,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,62 +1368,62 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1490,20 +1451,20 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,12 +1480,12 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A58A106-205D-4492-BA69-E2EEFD7C5E13}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,44 +1518,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1619,23 +1572,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/EASYCIVIL.bundle/CONTENTS/NET8/EASYCIVILCOMMANDS.xlsx
+++ b/EASYCIVIL.bundle/CONTENTS/NET8/EASYCIVILCOMMANDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOLISP\CIVIL3D.NET\CIVIL3D ONE PROJECT\EASYCIVIL\MENU\EASYCIVILMENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0529609F-E1FA-471E-BD26-822AC554BA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD44DA-9FCC-4A48-A7DD-F9CCA170A4B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12645" tabRatio="748" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12645" tabRatio="748" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>SPP</t>
   </si>
@@ -153,9 +153,6 @@
     <t>[BTS]..Replace Block with Str</t>
   </si>
   <si>
-    <t>[STS]..Replace Str with Str</t>
-  </si>
-  <si>
     <t>[SPS]..Swap Structure</t>
   </si>
   <si>
@@ -379,6 +376,21 @@
   </si>
   <si>
     <t>[ Check Update EASYCIVIL ]</t>
+  </si>
+  <si>
+    <t>[STS]..Replace Str with Str in PartList</t>
+  </si>
+  <si>
+    <t>SWS</t>
+  </si>
+  <si>
+    <t>[SWS]..Replace Str with Str</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>[ADP]..Auto Add Parts to Profile</t>
   </si>
 </sst>
 </file>
@@ -750,15 +762,15 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,41 +778,41 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +830,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF12041C-F8F7-4E3D-90F8-00F08A8BF469}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,12 +848,12 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,12 +869,12 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,28 +882,36 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +950,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -958,15 +978,15 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -991,10 +1011,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1042,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1067,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1075,18 +1095,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1139,36 +1159,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,25 +1240,25 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,15 +1266,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,15 +1282,15 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1331,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,15 +1364,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,57 +1393,57 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1453,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381F08F2-EAB6-48CE-B370-7D6C00C43BAF}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A58A106-205D-4492-BA69-E2EEFD7C5E13}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1448,85 +1546,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A58A106-205D-4492-BA69-E2EEFD7C5E13}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,20 +1562,20 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1572,23 +1600,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
